--- a/volcanes/Ranking.xlsx
+++ b/volcanes/Ranking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Posición 2019</t>
+          <t>posición 2019</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -410,10 +410,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -436,20 +434,14 @@
       <c r="F2">
         <v>-71.93899999999999</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>18.931999999999999</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>435.447</t>
-        </is>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>18.932</v>
+      </c>
+      <c r="I2">
+        <v>435.447</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -458,10 +450,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -484,20 +474,14 @@
       <c r="F3">
         <v>-71.733</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>17.285</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>380.279</t>
-        </is>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>17.285</v>
+      </c>
+      <c r="I3">
+        <v>380.279</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -506,10 +490,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -532,20 +514,14 @@
       <c r="F4">
         <v>-72.614</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>15.964</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>335.238</t>
-        </is>
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>15.964</v>
+      </c>
+      <c r="I4">
+        <v>335.238</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -554,10 +530,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -580,20 +554,14 @@
       <c r="F5">
         <v>-71.368</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>16.099</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>305.87700000000001</t>
-        </is>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>16.099</v>
+      </c>
+      <c r="I5">
+        <v>305.877</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -602,10 +570,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -628,20 +594,14 @@
       <c r="F6">
         <v>-72.112</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>14.118</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>296.48200000000003</t>
-        </is>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>14.118</v>
+      </c>
+      <c r="I6">
+        <v>296.482</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -650,10 +610,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -676,20 +634,14 @@
       <c r="F7">
         <v>-72.499</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>20.5</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>14.401</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>295.21300000000002</t>
-        </is>
+      <c r="G7">
+        <v>20.5</v>
+      </c>
+      <c r="H7">
+        <v>14.401</v>
+      </c>
+      <c r="I7">
+        <v>295.213</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -698,10 +650,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -724,20 +674,14 @@
       <c r="F8">
         <v>-72.03</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>14.564</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>276.72199999999998</t>
-        </is>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>14.564</v>
+      </c>
+      <c r="I8">
+        <v>276.722</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -746,10 +690,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -772,20 +714,14 @@
       <c r="F9">
         <v>-71.351</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>14.144</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>268.73500000000001</t>
-        </is>
+      <c r="G9">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>14.144</v>
+      </c>
+      <c r="I9">
+        <v>268.735</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -794,10 +730,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -820,20 +754,14 @@
       <c r="F10">
         <v>-72.07299999999999</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>16.5</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>16.085000000000001</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>265.411</t>
-        </is>
+      <c r="G10">
+        <v>16.5</v>
+      </c>
+      <c r="H10">
+        <v>16.085</v>
+      </c>
+      <c r="I10">
+        <v>265.411</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -842,10 +770,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -868,20 +794,14 @@
       <c r="F11">
         <v>-70.759</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>262.50700000000001</t>
-        </is>
+      <c r="G11">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>12.5</v>
+      </c>
+      <c r="I11">
+        <v>262.507</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -890,10 +810,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -916,20 +834,14 @@
       <c r="F12">
         <v>-72.65000000000001</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>12.792</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>255.833</t>
-        </is>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>12.792</v>
+      </c>
+      <c r="I12">
+        <v>255.833</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -938,10 +850,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -964,20 +874,14 @@
       <c r="F13">
         <v>-71.589</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>14.919</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>238.709</t>
-        </is>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>14.919</v>
+      </c>
+      <c r="I13">
+        <v>238.709</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -986,10 +890,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1012,20 +914,14 @@
       <c r="F14">
         <v>-72.97</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>10.234999999999999</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>214.94399999999999</t>
-        </is>
+      <c r="G14">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>10.235</v>
+      </c>
+      <c r="I14">
+        <v>214.944</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1034,10 +930,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1060,20 +954,14 @@
       <c r="F15">
         <v>-67.731</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>16.5</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>10.053000000000001</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>165.86699999999999</t>
-        </is>
+      <c r="G15">
+        <v>16.5</v>
+      </c>
+      <c r="H15">
+        <v>10.053</v>
+      </c>
+      <c r="I15">
+        <v>165.867</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1082,10 +970,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1108,20 +994,14 @@
       <c r="F16">
         <v>-72.44499999999999</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>11.93</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>202.81100000000001</t>
-        </is>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>11.93</v>
+      </c>
+      <c r="I16">
+        <v>202.811</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1130,10 +1010,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1156,20 +1034,14 @@
       <c r="F17">
         <v>-72.40000000000001</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>15.597</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>202.76599999999999</t>
-        </is>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>15.597</v>
+      </c>
+      <c r="I17">
+        <v>202.766</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1178,10 +1050,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1204,20 +1074,14 @@
       <c r="F18">
         <v>-71.51900000000001</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>14.413</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>201.77699999999999</t>
-        </is>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>14.413</v>
+      </c>
+      <c r="I18">
+        <v>201.777</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1226,10 +1090,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1252,20 +1114,14 @@
       <c r="F19">
         <v>-71.17</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>11.711</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>199.09299999999999</t>
-        </is>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>11.711</v>
+      </c>
+      <c r="I19">
+        <v>199.093</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1274,10 +1130,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1300,20 +1154,14 @@
       <c r="F20">
         <v>-70.75100000000001</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>20.5</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>9.0510000000000002</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>185.54599999999999</t>
-        </is>
+      <c r="G20">
+        <v>20.5</v>
+      </c>
+      <c r="H20">
+        <v>9.051</v>
+      </c>
+      <c r="I20">
+        <v>185.546</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1322,10 +1170,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1348,20 +1194,14 @@
       <c r="F21">
         <v>-71.446</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>10.901</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>174.42</t>
-        </is>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>10.901</v>
+      </c>
+      <c r="I21">
+        <v>174.42</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1370,10 +1210,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1396,20 +1234,14 @@
       <c r="F22">
         <v>-71.717</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>13.853999999999999</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>166.25200000000001</t>
-        </is>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>13.854</v>
+      </c>
+      <c r="I22">
+        <v>166.252</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1418,10 +1250,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1444,20 +1274,14 @@
       <c r="F23">
         <v>-69.143</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>11.474</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>160.63499999999999</t>
-        </is>
+      <c r="G23">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>11.474</v>
+      </c>
+      <c r="I23">
+        <v>160.635</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1466,10 +1290,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1492,20 +1314,14 @@
       <c r="F24">
         <v>-70.574</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>17.5</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>157.50299999999999</t>
-        </is>
+      <c r="G24">
+        <v>17.5</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>157.503</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1514,10 +1330,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1540,20 +1354,14 @@
       <c r="F25">
         <v>-72.431</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>15.567</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>155.66900000000001</t>
-        </is>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>15.567</v>
+      </c>
+      <c r="I25">
+        <v>155.669</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1562,10 +1370,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1588,20 +1394,14 @@
       <c r="F26">
         <v>-71.50100000000001</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>15.5</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>9.907</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>153.56399999999999</t>
-        </is>
+      <c r="G26">
+        <v>15.5</v>
+      </c>
+      <c r="H26">
+        <v>9.907</v>
+      </c>
+      <c r="I26">
+        <v>153.564</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1610,10 +1410,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1636,20 +1434,14 @@
       <c r="F27">
         <v>-72.155</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>11.5</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>12.061999999999999</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>138.71299999999999</t>
-        </is>
+      <c r="G27">
+        <v>11.5</v>
+      </c>
+      <c r="H27">
+        <v>12.062</v>
+      </c>
+      <c r="I27">
+        <v>138.713</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1658,10 +1450,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1684,20 +1474,14 @@
       <c r="F28">
         <v>-70.50700000000001</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>16.5</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>8.2509999999999994</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>136.13800000000001</t>
-        </is>
+      <c r="G28">
+        <v>16.5</v>
+      </c>
+      <c r="H28">
+        <v>8.250999999999999</v>
+      </c>
+      <c r="I28">
+        <v>136.138</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1706,10 +1490,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1732,20 +1514,14 @@
       <c r="F29">
         <v>-72.868</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>10.413</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>135.36600000000001</t>
-        </is>
+      <c r="G29">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>10.413</v>
+      </c>
+      <c r="I29">
+        <v>135.366</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1754,10 +1530,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1780,20 +1554,14 @@
       <c r="F30">
         <v>-69.80200000000001</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>122.06699999999999</t>
-        </is>
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="I30">
+        <v>122.067</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1802,10 +1570,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1828,20 +1594,14 @@
       <c r="F31">
         <v>-69.089</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>9.282</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>116.02200000000001</t>
-        </is>
+      <c r="G31">
+        <v>12.5</v>
+      </c>
+      <c r="H31">
+        <v>9.282</v>
+      </c>
+      <c r="I31">
+        <v>116.022</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1850,10 +1610,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1876,20 +1634,14 @@
       <c r="F32">
         <v>-69.828</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>10.401999999999999</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>135.227</t>
-        </is>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>10.402</v>
+      </c>
+      <c r="I32">
+        <v>135.227</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1898,10 +1650,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1924,20 +1674,14 @@
       <c r="F33">
         <v>-69.89400000000001</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>14.919</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>134.27500000000001</t>
-        </is>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>14.919</v>
+      </c>
+      <c r="I33">
+        <v>134.275</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1946,10 +1690,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1972,20 +1714,14 @@
       <c r="F34">
         <v>-72.589</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>14.125999999999999</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>120.068</t>
-        </is>
+      <c r="G34">
+        <v>8.5</v>
+      </c>
+      <c r="H34">
+        <v>14.126</v>
+      </c>
+      <c r="I34">
+        <v>120.068</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1994,10 +1730,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2020,20 +1754,14 @@
       <c r="F35">
         <v>-72.26900000000001</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>11.5</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>10.260999999999999</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>117.997</t>
-        </is>
+      <c r="G35">
+        <v>11.5</v>
+      </c>
+      <c r="H35">
+        <v>10.261</v>
+      </c>
+      <c r="I35">
+        <v>117.997</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2042,10 +1770,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2068,20 +1794,14 @@
       <c r="F36">
         <v>-60.637</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>6.3520000000000003</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>114.336</t>
-        </is>
+      <c r="G36">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>6.352</v>
+      </c>
+      <c r="I36">
+        <v>114.336</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2090,10 +1810,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2116,20 +1834,14 @@
       <c r="F37">
         <v>-73.37900000000001</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>15.5</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>108.5</t>
-        </is>
+      <c r="G37">
+        <v>15.5</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>108.5</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2138,10 +1850,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2164,20 +1874,14 @@
       <c r="F38">
         <v>-69.509</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>12.045999999999999</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>108.411</t>
-        </is>
+      <c r="G38">
+        <v>9</v>
+      </c>
+      <c r="H38">
+        <v>12.046</v>
+      </c>
+      <c r="I38">
+        <v>108.411</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2186,10 +1890,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2212,20 +1914,14 @@
       <c r="F39">
         <v>-72.57899999999999</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>8.1839999999999993</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>102.3</t>
-        </is>
+      <c r="G39">
+        <v>12.5</v>
+      </c>
+      <c r="H39">
+        <v>8.183999999999999</v>
+      </c>
+      <c r="I39">
+        <v>102.3</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2234,10 +1930,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2260,20 +1954,14 @@
       <c r="F40">
         <v>-73.07899999999999</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>7.6109999999999998</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>95.138999999999996</t>
-        </is>
+      <c r="G40">
+        <v>12.5</v>
+      </c>
+      <c r="H40">
+        <v>7.611</v>
+      </c>
+      <c r="I40">
+        <v>95.139</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2282,10 +1970,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2308,20 +1994,14 @@
       <c r="F41">
         <v>-71.164</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>10.528</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>94.748999999999995</t>
-        </is>
+      <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <v>10.528</v>
+      </c>
+      <c r="I41">
+        <v>94.749</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2330,10 +2010,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2356,20 +2034,14 @@
       <c r="F42">
         <v>-68.39100000000001</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>8.2750000000000004</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>8.275</v>
+      </c>
+      <c r="I42">
+        <v>91.03</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2378,10 +2050,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2404,20 +2074,14 @@
       <c r="F43">
         <v>-69.773</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>11.288</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>90.308000000000007</t>
-        </is>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <v>11.288</v>
+      </c>
+      <c r="I43">
+        <v>90.30800000000001</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2426,10 +2090,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="A44">
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2452,20 +2114,14 @@
       <c r="F44">
         <v>-73.58</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>6.6059999999999999</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>85.884</t>
-        </is>
+      <c r="G44">
+        <v>13</v>
+      </c>
+      <c r="H44">
+        <v>6.606</v>
+      </c>
+      <c r="I44">
+        <v>85.884</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2474,10 +2130,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="A45">
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2500,20 +2154,14 @@
       <c r="F45">
         <v>-73.164</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>10.5</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>7.8310000000000004</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>82.222999999999999</t>
-        </is>
+      <c r="G45">
+        <v>10.5</v>
+      </c>
+      <c r="H45">
+        <v>7.831</v>
+      </c>
+      <c r="I45">
+        <v>82.223</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2522,10 +2170,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2548,20 +2194,14 @@
       <c r="F46">
         <v>-72.81399999999999</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>11.5</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>6.9729999999999999</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>80.194000000000003</t>
-        </is>
+      <c r="G46">
+        <v>11.5</v>
+      </c>
+      <c r="H46">
+        <v>6.973</v>
+      </c>
+      <c r="I46">
+        <v>80.194</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2570,10 +2210,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2596,20 +2234,14 @@
       <c r="F47">
         <v>-109.367</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>12.561999999999999</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>75.37</t>
-        </is>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>12.562</v>
+      </c>
+      <c r="I47">
+        <v>75.37000000000001</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2618,10 +2250,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2644,20 +2274,14 @@
       <c r="F48">
         <v>-68.56</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>9.2080000000000002</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>73.665000000000006</t>
-        </is>
+      <c r="G48">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>9.208</v>
+      </c>
+      <c r="I48">
+        <v>73.66500000000001</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2666,10 +2290,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="A49">
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2692,20 +2314,14 @@
       <c r="F49">
         <v>-72.794</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>4.6870000000000003</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>51.552</t>
-        </is>
+      <c r="G49">
+        <v>11</v>
+      </c>
+      <c r="H49">
+        <v>4.687</v>
+      </c>
+      <c r="I49">
+        <v>51.552</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2714,10 +2330,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2740,20 +2354,14 @@
       <c r="F50">
         <v>-68.50400000000001</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>10.212</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>51.058</t>
-        </is>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>10.212</v>
+      </c>
+      <c r="I50">
+        <v>51.058</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2762,10 +2370,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="A51">
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2788,20 +2394,14 @@
       <c r="F51">
         <v>-73.506</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>3.2280000000000002</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>32.283000000000001</t>
-        </is>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>3.228</v>
+      </c>
+      <c r="I51">
+        <v>32.283</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2810,10 +2410,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="A52">
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2836,20 +2434,14 @@
       <c r="F52">
         <v>-71.928</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>9.0350000000000001</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>90.352999999999994</t>
-        </is>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>9.035</v>
+      </c>
+      <c r="I52">
+        <v>90.35299999999999</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2858,10 +2450,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="A53">
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2884,20 +2474,14 @@
       <c r="F53">
         <v>-70.855</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>9.4809999999999999</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>85.326999999999998</t>
-        </is>
+      <c r="G53">
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <v>9.481</v>
+      </c>
+      <c r="I53">
+        <v>85.327</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2906,10 +2490,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="A54">
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2932,20 +2514,14 @@
       <c r="F54">
         <v>-72.28</v>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>8.6050000000000004</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>77.444999999999993</t>
-        </is>
+      <c r="G54">
+        <v>9</v>
+      </c>
+      <c r="H54">
+        <v>8.605</v>
+      </c>
+      <c r="I54">
+        <v>77.44499999999999</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2954,10 +2530,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="A55">
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2980,20 +2554,14 @@
       <c r="F55">
         <v>-71.646</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>8.9190000000000005</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>71.355000000000004</t>
-        </is>
+      <c r="G55">
+        <v>8</v>
+      </c>
+      <c r="H55">
+        <v>8.919000000000001</v>
+      </c>
+      <c r="I55">
+        <v>71.355</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3002,10 +2570,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+      <c r="A56">
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3028,20 +2594,14 @@
       <c r="F56">
         <v>-73.07599999999999</v>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>7.5010000000000003</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>71.263000000000005</t>
-        </is>
+      <c r="G56">
+        <v>9.5</v>
+      </c>
+      <c r="H56">
+        <v>7.501</v>
+      </c>
+      <c r="I56">
+        <v>71.26300000000001</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3050,10 +2610,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+      <c r="A57">
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3076,20 +2634,14 @@
       <c r="F57">
         <v>-70.34</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>7.8120000000000003</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>70.305999999999997</t>
-        </is>
+      <c r="G57">
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <v>7.812</v>
+      </c>
+      <c r="I57">
+        <v>70.306</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3098,10 +2650,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="A58">
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3124,20 +2674,14 @@
       <c r="F58">
         <v>-68.246</v>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>8.0830000000000002</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>64.662999999999997</t>
-        </is>
+      <c r="G58">
+        <v>8</v>
+      </c>
+      <c r="H58">
+        <v>8.083</v>
+      </c>
+      <c r="I58">
+        <v>64.663</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3146,10 +2690,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="A59">
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3172,20 +2714,14 @@
       <c r="F59">
         <v>-72.53400000000001</v>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>9.0020000000000007</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>63.017000000000003</t>
-        </is>
+      <c r="G59">
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>9.002000000000001</v>
+      </c>
+      <c r="I59">
+        <v>63.017</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3194,10 +2730,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+      <c r="A60">
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3220,20 +2754,14 @@
       <c r="F60">
         <v>-68.81999999999999</v>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>6.9960000000000004</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>62.960999999999999</t>
-        </is>
+      <c r="G60">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>6.996</v>
+      </c>
+      <c r="I60">
+        <v>62.961</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3242,10 +2770,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="A61">
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3268,20 +2794,14 @@
       <c r="F61">
         <v>-68.18000000000001</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>8.8279999999999994</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>61.795000000000002</t>
-        </is>
+      <c r="G61">
+        <v>7</v>
+      </c>
+      <c r="H61">
+        <v>8.827999999999999</v>
+      </c>
+      <c r="I61">
+        <v>61.795</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3290,10 +2810,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="A62">
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3316,20 +2834,14 @@
       <c r="F62">
         <v>-72.34999999999999</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>6.5709999999999997</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>55.854999999999997</t>
-        </is>
+      <c r="G62">
+        <v>8.5</v>
+      </c>
+      <c r="H62">
+        <v>6.571</v>
+      </c>
+      <c r="I62">
+        <v>55.855</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3338,10 +2850,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
+      <c r="A63">
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3364,20 +2874,14 @@
       <c r="F63">
         <v>-71.729</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>8.8940000000000001</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>53.366</t>
-        </is>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>8.894</v>
+      </c>
+      <c r="I63">
+        <v>53.366</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3386,10 +2890,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
+      <c r="A64">
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3412,20 +2914,14 @@
       <c r="F64">
         <v>-72.482</v>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>5.8250000000000002</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>52.420999999999999</t>
-        </is>
+      <c r="G64">
+        <v>9</v>
+      </c>
+      <c r="H64">
+        <v>5.825</v>
+      </c>
+      <c r="I64">
+        <v>52.421</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3434,10 +2930,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
+      <c r="A65">
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3460,20 +2954,14 @@
       <c r="F65">
         <v>-68.50700000000001</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>4.125</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>39.186</t>
-        </is>
+      <c r="G65">
+        <v>9.5</v>
+      </c>
+      <c r="H65">
+        <v>4.125</v>
+      </c>
+      <c r="I65">
+        <v>39.186</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3482,10 +2970,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="A66">
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3508,20 +2994,14 @@
       <c r="F66">
         <v>-72.988</v>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>4.2919999999999998</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>34.334000000000003</t>
-        </is>
+      <c r="G66">
+        <v>8</v>
+      </c>
+      <c r="H66">
+        <v>4.292</v>
+      </c>
+      <c r="I66">
+        <v>34.334</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3530,10 +3010,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="A67">
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3556,20 +3034,14 @@
       <c r="F67">
         <v>-70.09999999999999</v>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>5.0369999999999999</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>32.743000000000002</t>
-        </is>
+      <c r="G67">
+        <v>6.5</v>
+      </c>
+      <c r="H67">
+        <v>5.037</v>
+      </c>
+      <c r="I67">
+        <v>32.743</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3578,10 +3050,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="A68">
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3604,20 +3074,14 @@
       <c r="F68">
         <v>-70.30200000000001</v>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>6.4409999999999998</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>32.204999999999998</t>
-        </is>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>6.441</v>
+      </c>
+      <c r="I68">
+        <v>32.205</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3626,10 +3090,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+      <c r="A69">
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3652,20 +3114,14 @@
       <c r="F69">
         <v>-73.75</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>3.3820000000000001</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>30.439</t>
-        </is>
+      <c r="G69">
+        <v>9</v>
+      </c>
+      <c r="H69">
+        <v>3.382</v>
+      </c>
+      <c r="I69">
+        <v>30.439</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3674,10 +3130,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+      <c r="A70">
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3700,20 +3154,14 @@
       <c r="F70">
         <v>-67.884</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>8.6950000000000003</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>26.085000000000001</t>
-        </is>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>8.695</v>
+      </c>
+      <c r="I70">
+        <v>26.085</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3722,10 +3170,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="A71">
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3748,20 +3194,14 @@
       <c r="F71">
         <v>-68.46899999999999</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>24</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3770,10 +3210,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="A72">
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3796,20 +3234,14 @@
       <c r="F72">
         <v>-70.25</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>4.1989999999999998</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>20.995000000000001</t>
-        </is>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>4.199</v>
+      </c>
+      <c r="I72">
+        <v>20.995</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3818,10 +3250,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="A73">
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3844,20 +3274,14 @@
       <c r="F73">
         <v>-70.62000000000001</v>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>4.1070000000000002</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>20.533999999999999</t>
-        </is>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>4.107</v>
+      </c>
+      <c r="I73">
+        <v>20.534</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3866,10 +3290,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="A74">
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3892,20 +3314,14 @@
       <c r="F74">
         <v>-70.5</v>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>4.1070000000000002</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>20.533999999999999</t>
-        </is>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>4.107</v>
+      </c>
+      <c r="I74">
+        <v>20.534</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3914,10 +3330,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="A75">
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3940,20 +3354,14 @@
       <c r="F75">
         <v>-67.646</v>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>15</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3962,10 +3370,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="A76">
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3988,20 +3394,14 @@
       <c r="F76">
         <v>-68.541</v>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>15</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4010,10 +3410,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+      <c r="A77">
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4036,20 +3434,14 @@
       <c r="F77">
         <v>-68.202</v>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>3.6629999999999998</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>14.651</t>
-        </is>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>3.663</v>
+      </c>
+      <c r="I77">
+        <v>14.651</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4058,10 +3450,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="A78">
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4084,20 +3474,14 @@
       <c r="F78">
         <v>-67.89100000000001</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>3.6230000000000002</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>14.493</t>
-        </is>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78">
+        <v>3.623</v>
+      </c>
+      <c r="I78">
+        <v>14.493</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4106,10 +3490,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="A79">
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4132,20 +3514,14 @@
       <c r="F79">
         <v>-67.85299999999999</v>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>12</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4154,10 +3530,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="A80">
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4180,20 +3554,14 @@
       <c r="F80">
         <v>-67.688</v>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>12</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4202,10 +3570,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="A81">
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4228,20 +3594,14 @@
       <c r="F81">
         <v>-67.54000000000001</v>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>12</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4250,10 +3610,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="A82">
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4276,20 +3634,14 @@
       <c r="F82">
         <v>-68.066</v>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>12</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -4298,10 +3650,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="A83">
+        <v>82</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4324,20 +3674,14 @@
       <c r="F83">
         <v>-68.77800000000001</v>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>12</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4346,10 +3690,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="A84">
+        <v>83</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4372,20 +3714,14 @@
       <c r="F84">
         <v>-67.70099999999999</v>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>9</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4394,10 +3730,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="A85">
+        <v>84</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4420,20 +3754,14 @@
       <c r="F85">
         <v>-67.74</v>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>9</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4442,10 +3770,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="A86">
+        <v>85</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4468,20 +3794,14 @@
       <c r="F86">
         <v>-68.29600000000001</v>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>9</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4490,10 +3810,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="A87">
+        <v>86</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4516,20 +3834,14 @@
       <c r="F87">
         <v>-72.75</v>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <v>2.21</v>
+      </c>
+      <c r="I87">
+        <v>8.84</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4538,10 +3850,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="A88">
+        <v>87</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4564,20 +3874,14 @@
       <c r="F88">
         <v>-67.618</v>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4586,194 +3890,200 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>88_x000D_
-89</t>
-        </is>
+      <c r="A89">
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Llullaillaco_x000D_
-Alítar</t>
+          <t>Llullaillaco</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>II_x000D_
-II</t>
+          <t>II</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Estratovolcán_x000D_
-Maar</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>6,0_x000D_
-2,0</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>1,000_x000D_
-2,000</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>6,000_x000D_
-4,000</t>
-        </is>
+          <t>Estratovolcán</t>
+        </is>
+      </c>
+      <c r="E89">
+        <v>-24.72</v>
+      </c>
+      <c r="F89">
+        <v>-68.53700000000001</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>V_x000D_
-V</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="A90">
+        <v>89</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>Alítar</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Maar</t>
+        </is>
+      </c>
+      <c r="E90">
+        <v>-23.148</v>
+      </c>
+      <c r="F90">
+        <v>-67.655</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>Cerro Bayo</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Complejo</t>
         </is>
       </c>
-      <c r="E90">
+      <c r="E91">
         <v>-25.414</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>-68.58799999999999</v>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
+    <row r="92">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Cordón del Azufre</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Complejo</t>
         </is>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>-25.336</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>-68.52200000000001</v>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
+    <row r="93">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>Sierra Nevada</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Complejo</t>
         </is>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>-26.481</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>-68.58</v>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>V</t>
         </is>
